--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney(ViaBene)_Interbank.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney(ViaBene)_Interbank.xlsx
@@ -96,9 +96,6 @@
     <t>Success_Message</t>
   </si>
   <si>
-    <t>Your transaction has been processed successfully.</t>
-  </si>
-  <si>
     <t>02197900643103</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>AliOtherBank</t>
+  </si>
+  <si>
+    <t>Money sent successfully.</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +475,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -525,25 +525,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney(ViaBene)_Interbank.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney(ViaBene)_Interbank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Case</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Money sent successfully.</t>
+  </si>
+  <si>
+    <t>FCY_Check</t>
+  </si>
+  <si>
+    <t>conversion_query</t>
   </si>
 </sst>
 </file>
@@ -448,26 +454,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="59.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="11" width="44.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="59.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="13" width="44.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,98 +481,104 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>13</v>
       </c>
     </row>
